--- a/JavaScript/Work/st00.docs/html&css정리.xlsx
+++ b/JavaScript/Work/st00.docs/html&css정리.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배경 적용 범위 지정. 파보마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경 이미지 지정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,83 +390,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소 배치 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/relative/absolute/fiexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z-index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible/hidden/collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지셔닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요소를 보이거나 보이지 않게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table-layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠에 맞게 셀 너비 지정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽이나 오른쪽에 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertical-align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 안에서 수직 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소의 쌓는 순서 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 너비 정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">float 속성 해제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none/left/right/both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 쓰기 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left/center/right/justify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thin / medium / thick / 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>box-shdow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요소 배치 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static/relative/absolute/fiexed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z-index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visible/hidden/collapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포지셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">요소를 보이거나 보이지 않게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-collapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table-layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘텐츠에 맞게 셀 너비 지정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽이나 오른쪽에 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vertical-align</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀 안에서 수직 정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요소의 쌓는 순서 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-sizing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스 너비 정하기</t>
+    <t>outline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top/middle/bottom/baseline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,35 +514,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">float 속성 해제 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none/left/right/both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-decoration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none / underline / overline / line-through</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lt / rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 쓰기 방향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left/center/right/justify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thin / medium / thick / 크기</t>
+    <t>none/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block/inline-block/none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bold/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none/line-through/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-spacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-box/padding-box/content-box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배경 적용 범위 지정. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat/repeat-x/repeat-y/no-repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none/underline/overline/line-through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltr/rtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 줄 표시하기/ 없애기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 클릭 후 태그 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스를 누르고 있을 때의 태그 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스를 올리는 경우의 태그 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 클릭 전의 태그 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 색깔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 형태. 실선,점선...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 두께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 모서리 둥글게 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid/dotted/dashed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,9 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -761,13 +854,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2846359</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>43316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -799,13 +892,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2205870</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>182596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,6 +918,194 @@
         <a:xfrm>
           <a:off x="7372350" y="5848350"/>
           <a:ext cx="3987045" cy="2049496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654894</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2983103</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10379919" y="5178108"/>
+          <a:ext cx="4785659" cy="1327459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>678315</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>189910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2594572</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10403340" y="2294935"/>
+          <a:ext cx="4373707" cy="1082947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36605</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1334996</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="29730" r="25000" b="-1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447430" y="271817"/>
+          <a:ext cx="3070041" cy="1228016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>645063</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2698212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="16347" b="14510"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10370088" y="1466851"/>
+          <a:ext cx="4510599" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8570</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1757806</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10419395" y="3241402"/>
+          <a:ext cx="3520886" cy="765722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,31 +1404,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="42.625" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1158,754 +1439,837 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="9" t="s">
+      <c r="E13" s="5"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9" t="s">
+      <c r="E14" s="5"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="9" t="s">
+      <c r="E15" s="5"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="9" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="9" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="9" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="9" t="s">
+      <c r="D20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="5" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="5" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="20"/>
+      <c r="A27" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="20"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>10</v>
+      <c r="A31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="E35" s="5" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="5"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>32</v>
+      <c r="A50" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>48</v>
+        <v>97</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>52</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>54</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="21"/>
+      <c r="A59" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>102</v>
-      </c>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="5" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="5" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="5" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="C65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="23"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="E73" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="24"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="4" t="s">
+      <c r="D75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" s="5"/>
+      <c r="E75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="B60:B70"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="B65:B75"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="A12:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
